--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postCompletion\research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postCompletion\research\Accelerated-Blind-CNN-Descent-ABCD-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233A6EBE-D6A6-475A-AA12-BC8DF5E1B9AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC133DFF-0D37-4994-B182-D589B4A50C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Experiment number</t>
   </si>
@@ -81,7 +81,10 @@
     <t>nine</t>
   </si>
   <si>
-    <t>Test Accuracy (%)</t>
+    <t>CIFAR-10 Test Accuracy (%)</t>
+  </si>
+  <si>
+    <t>MNIST Test Accuracy (%)</t>
   </si>
 </sst>
 </file>
@@ -408,20 +411,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,8 +438,11 @@
       <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -446,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -457,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -468,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -479,7 +486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -490,7 +497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -501,7 +508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -512,7 +519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -523,7 +530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\postCompletion\research\Accelerated-Blind-CNN-Descent-ABCD-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC133DFF-0D37-4994-B182-D589B4A50C20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6E3004-4261-409B-8456-284FB16C3AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -414,7 +414,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,6 +452,12 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>11.88</v>
+      </c>
+      <c r="E2">
+        <v>10.24</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -463,6 +469,12 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>10.29</v>
+      </c>
+      <c r="E3">
+        <v>9.74</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -474,6 +486,12 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4">
+        <v>11.42</v>
+      </c>
+      <c r="E4">
+        <v>9.8000000000000007</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -485,6 +503,12 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>9.27</v>
+      </c>
+      <c r="E5">
+        <v>12.65</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -496,6 +520,12 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
+      <c r="D6">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E6">
+        <v>10.52</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -507,6 +537,12 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7">
+        <v>11.25</v>
+      </c>
+      <c r="E7">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -518,6 +554,12 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
+      <c r="D8">
+        <v>10.82</v>
+      </c>
+      <c r="E8">
+        <v>9.5500000000000007</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -529,6 +571,12 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
+      <c r="D9">
+        <v>9.51</v>
+      </c>
+      <c r="E9">
+        <v>11.35</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -539,6 +587,12 @@
       </c>
       <c r="C10" t="s">
         <v>6</v>
+      </c>
+      <c r="D10">
+        <v>10.85</v>
+      </c>
+      <c r="E10">
+        <v>10.17</v>
       </c>
     </row>
   </sheetData>
